--- a/BC NF.xlsx
+++ b/BC NF.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>customerID</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Audit Trails</t>
   </si>
   <si>
+    <t xml:space="preserve">Customer Passangers</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>pid</t>
   </si>
   <si>
     <t>cpass</t>
@@ -198,7 +204,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,12 +229,6 @@
         <bgColor rgb="FFBF0041"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -249,7 +249,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -274,10 +274,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -765,7 +761,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="B1" zoomScale="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -778,10 +774,11 @@
     <col customWidth="1" min="5" max="5" style="1" width="27.390000000000001"/>
     <col customWidth="1" min="6" max="6" style="1" width="20.030000000000001"/>
     <col customWidth="1" min="7" max="7" style="1" width="32.270000000000003"/>
-    <col customWidth="1" min="8" max="8" style="1" width="29.34"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="31.421875"/>
     <col customWidth="1" min="9" max="9" style="1" width="30.800000000000001"/>
     <col bestFit="1" customWidth="0" min="10" max="10" style="1" width="21.8515625"/>
-    <col customWidth="0" min="11" max="1024" style="1" width="11.52"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" style="1" width="40.7109375"/>
+    <col customWidth="0" min="12" max="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" ht="24">
@@ -815,185 +812,191 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" ht="24">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="24">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="24">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="24">
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="24">
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" ht="24">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="24">
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="24">
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="24">
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
